--- a/resources/historical.xlsx
+++ b/resources/historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX121"/>
+  <dimension ref="A1:BB121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,195 +424,215 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>SapAdaptiveServer</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>SQLite</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Netezza</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>GoogleCloudDatastore</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>InfluxDB</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Solr</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>FileMaker</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MS Access</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Vertica</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Memcached</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Aerospike</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Firebird</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Etcd</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>ClickHouse</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>FirebaseRealtime</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Impala</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>IBM DB2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>MariaDB</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>HBase</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>MarkLogic</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>MongoDB</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>MicrosoftAzureTableStorage</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>OrientDB</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Neo4j</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>CouchDB</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>DynamoDB</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Couchbase</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Cassandra</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Cosmos BD</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>SapHana</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Realm</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Ehcache</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>AmazonRedshift</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>MS SQL Server</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Hive</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Hazelcast</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Teradata</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Elasticsearch</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Ignite-NoSql</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Redis</t>
         </is>
@@ -655,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -718,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -742,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -769,6 +789,18 @@
         <v>0</v>
       </c>
       <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -809,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -872,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -896,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -923,6 +955,18 @@
         <v>0</v>
       </c>
       <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1026,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1050,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -1077,6 +1121,18 @@
         <v>0</v>
       </c>
       <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1117,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1180,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1204,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -1231,6 +1287,18 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1271,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1334,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1358,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1385,6 +1453,18 @@
         <v>0</v>
       </c>
       <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1488,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1512,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -1539,6 +1619,18 @@
         <v>0</v>
       </c>
       <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1579,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1642,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1666,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -1693,6 +1785,18 @@
         <v>0</v>
       </c>
       <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1733,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1796,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1820,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -1847,6 +1951,18 @@
         <v>0</v>
       </c>
       <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1887,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1950,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1974,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -2001,6 +2117,18 @@
         <v>0</v>
       </c>
       <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2041,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2104,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -2128,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -2155,6 +2283,18 @@
         <v>0</v>
       </c>
       <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -2252,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -2264,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
@@ -2282,33 +2422,45 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -2406,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -2418,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -2436,33 +2588,45 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2515,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2560,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2572,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -2590,33 +2754,45 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
       </c>
       <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2669,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -2714,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2726,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -2744,33 +2920,45 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2823,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2868,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2880,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -2898,33 +3086,45 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2977,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -3022,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -3034,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -3052,33 +3252,45 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
       </c>
       <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -3176,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -3188,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -3206,33 +3418,45 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
       </c>
       <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -3330,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -3342,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -3360,33 +3584,45 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
       </c>
       <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3439,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -3484,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -3496,13 +3732,13 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -3514,33 +3750,45 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
       </c>
       <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3593,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -3638,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -3650,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
@@ -3668,33 +3916,45 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
       </c>
       <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3851,6 +4111,18 @@
       <c r="AX22" t="n">
         <v>0</v>
       </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4005,6 +4277,18 @@
       <c r="AX23" t="n">
         <v>0</v>
       </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4159,6 +4443,18 @@
       <c r="AX24" t="n">
         <v>0</v>
       </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4313,6 +4609,18 @@
       <c r="AX25" t="n">
         <v>0</v>
       </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4467,6 +4775,18 @@
       <c r="AX26" t="n">
         <v>0</v>
       </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4621,6 +4941,18 @@
       <c r="AX27" t="n">
         <v>0</v>
       </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4775,6 +5107,18 @@
       <c r="AX28" t="n">
         <v>0</v>
       </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4929,6 +5273,18 @@
       <c r="AX29" t="n">
         <v>0</v>
       </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5083,6 +5439,18 @@
       <c r="AX30" t="n">
         <v>0</v>
       </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5237,6 +5605,18 @@
       <c r="AX31" t="n">
         <v>0</v>
       </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5278,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -5287,25 +5667,25 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -5320,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>1</v>
@@ -5332,22 +5712,22 @@
         <v>1</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>1</v>
       </c>
       <c r="AH32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32" t="n">
         <v>1</v>
@@ -5362,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32" t="n">
         <v>1</v>
@@ -5371,13 +5751,13 @@
         <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
         <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -5389,6 +5769,18 @@
         <v>0</v>
       </c>
       <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -5441,25 +5833,25 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -5474,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
         <v>1</v>
@@ -5486,22 +5878,22 @@
         <v>1</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
         <v>1</v>
@@ -5516,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33" t="n">
         <v>1</v>
@@ -5525,13 +5917,13 @@
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="n">
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -5543,6 +5935,18 @@
         <v>0</v>
       </c>
       <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5586,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -5595,25 +5999,25 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -5628,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>1</v>
@@ -5640,22 +6044,22 @@
         <v>1</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>1</v>
       </c>
       <c r="AH34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
         <v>1</v>
@@ -5670,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" t="n">
         <v>1</v>
@@ -5679,13 +6083,13 @@
         <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34" t="n">
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -5697,6 +6101,18 @@
         <v>0</v>
       </c>
       <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -5749,25 +6165,25 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -5782,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
         <v>1</v>
@@ -5794,22 +6210,22 @@
         <v>1</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" t="n">
         <v>1</v>
@@ -5824,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35" t="n">
         <v>1</v>
@@ -5833,13 +6249,13 @@
         <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" t="n">
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -5851,6 +6267,18 @@
         <v>0</v>
       </c>
       <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5894,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -5903,25 +6331,25 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -5936,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>1</v>
@@ -5948,22 +6376,22 @@
         <v>1</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>1</v>
       </c>
       <c r="AH36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK36" t="n">
         <v>1</v>
@@ -5978,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36" t="n">
         <v>1</v>
@@ -5987,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="AR36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS36" t="n">
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -6005,6 +6433,18 @@
         <v>0</v>
       </c>
       <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -6057,25 +6497,25 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -6090,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
         <v>1</v>
@@ -6102,22 +6542,22 @@
         <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>1</v>
       </c>
       <c r="AH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" t="n">
         <v>1</v>
@@ -6132,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37" t="n">
         <v>1</v>
@@ -6141,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="AR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="n">
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -6159,6 +6599,18 @@
         <v>0</v>
       </c>
       <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6202,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -6211,25 +6663,25 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -6244,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
         <v>1</v>
@@ -6256,22 +6708,22 @@
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>1</v>
       </c>
       <c r="AH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38" t="n">
         <v>1</v>
@@ -6286,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38" t="n">
         <v>1</v>
@@ -6295,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="AR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" t="n">
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -6313,6 +6765,18 @@
         <v>0</v>
       </c>
       <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -6365,25 +6829,25 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -6398,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
         <v>1</v>
@@ -6410,22 +6874,22 @@
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
         <v>1</v>
       </c>
       <c r="AH39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" t="n">
         <v>1</v>
@@ -6440,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39" t="n">
         <v>1</v>
@@ -6449,13 +6913,13 @@
         <v>0</v>
       </c>
       <c r="AR39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39" t="n">
         <v>0</v>
       </c>
       <c r="AT39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -6467,6 +6931,18 @@
         <v>0</v>
       </c>
       <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6510,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -6519,25 +6995,25 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -6552,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
         <v>1</v>
@@ -6564,22 +7040,22 @@
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>1</v>
       </c>
       <c r="AH40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40" t="n">
         <v>1</v>
@@ -6594,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40" t="n">
         <v>1</v>
@@ -6603,13 +7079,13 @@
         <v>0</v>
       </c>
       <c r="AR40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40" t="n">
         <v>0</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -6621,6 +7097,18 @@
         <v>0</v>
       </c>
       <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6664,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -6673,25 +7161,25 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -6706,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
         <v>1</v>
@@ -6718,22 +7206,22 @@
         <v>1</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
         <v>1</v>
       </c>
       <c r="AH41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
         <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" t="n">
         <v>1</v>
@@ -6748,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41" t="n">
         <v>1</v>
@@ -6757,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS41" t="n">
         <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -6775,6 +7263,18 @@
         <v>0</v>
       </c>
       <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6827,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -6869,43 +7369,43 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" t="n">
         <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" t="n">
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="n">
         <v>1</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN42" t="n">
         <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
         <v>0</v>
@@ -6923,12 +7423,24 @@
         <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW42" t="n">
         <v>0</v>
       </c>
       <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6981,13 +7493,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -7023,43 +7535,43 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43" t="n">
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
         <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
         <v>1</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
         <v>0</v>
@@ -7077,12 +7589,24 @@
         <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
         <v>0</v>
       </c>
       <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7135,13 +7659,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -7177,43 +7701,43 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" t="n">
         <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
         <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" t="n">
         <v>1</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN44" t="n">
         <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" t="n">
         <v>0</v>
@@ -7231,12 +7755,24 @@
         <v>0</v>
       </c>
       <c r="AV44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW44" t="n">
         <v>0</v>
       </c>
       <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,13 +7825,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -7331,43 +7867,43 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45" t="n">
         <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
         <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" t="n">
         <v>1</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45" t="n">
         <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
         <v>0</v>
@@ -7385,12 +7921,24 @@
         <v>0</v>
       </c>
       <c r="AV45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
       </c>
       <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7443,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -7485,43 +8033,43 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46" t="n">
         <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
         <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
         <v>1</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -7539,12 +8087,24 @@
         <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" t="n">
         <v>0</v>
       </c>
       <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7597,13 +8157,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -7639,43 +8199,43 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47" t="n">
         <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
         <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
         <v>1</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="n">
         <v>0</v>
@@ -7693,12 +8253,24 @@
         <v>0</v>
       </c>
       <c r="AV47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" t="n">
         <v>0</v>
       </c>
       <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7751,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -7793,43 +8365,43 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48" t="n">
         <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
         <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
         <v>1</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48" t="n">
         <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
         <v>0</v>
@@ -7847,12 +8419,24 @@
         <v>0</v>
       </c>
       <c r="AV48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW48" t="n">
         <v>0</v>
       </c>
       <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7905,13 +8489,13 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -7947,43 +8531,43 @@
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49" t="n">
         <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
         <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
         <v>1</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49" t="n">
         <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
         <v>0</v>
@@ -8001,12 +8585,24 @@
         <v>0</v>
       </c>
       <c r="AV49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" t="n">
         <v>0</v>
       </c>
       <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,13 +8655,13 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -8101,43 +8697,43 @@
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50" t="n">
         <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ50" t="n">
         <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
         <v>1</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN50" t="n">
         <v>0</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" t="n">
         <v>0</v>
@@ -8155,12 +8751,24 @@
         <v>0</v>
       </c>
       <c r="AV50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" t="n">
         <v>0</v>
       </c>
       <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8213,13 +8821,13 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -8255,43 +8863,43 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51" t="n">
         <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
         <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" t="n">
         <v>1</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -8309,12 +8917,24 @@
         <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW51" t="n">
         <v>0</v>
       </c>
       <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8418,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
         <v>0</v>
@@ -8430,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" t="n">
         <v>0</v>
@@ -8469,6 +9089,18 @@
         <v>0</v>
       </c>
       <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8572,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" t="n">
         <v>0</v>
@@ -8584,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" t="n">
         <v>0</v>
@@ -8623,6 +9255,18 @@
         <v>0</v>
       </c>
       <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8726,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
         <v>0</v>
@@ -8738,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" t="n">
         <v>0</v>
@@ -8777,6 +9421,18 @@
         <v>0</v>
       </c>
       <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8880,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
         <v>0</v>
@@ -8892,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" t="n">
         <v>0</v>
@@ -8931,6 +9587,18 @@
         <v>0</v>
       </c>
       <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9034,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56" t="n">
         <v>0</v>
@@ -9046,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" t="n">
         <v>0</v>
@@ -9085,6 +9753,18 @@
         <v>0</v>
       </c>
       <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9188,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="AG57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" t="n">
         <v>0</v>
@@ -9200,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" t="n">
         <v>0</v>
@@ -9239,6 +9919,18 @@
         <v>0</v>
       </c>
       <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9342,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="AG58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58" t="n">
         <v>0</v>
@@ -9354,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" t="n">
         <v>0</v>
@@ -9393,6 +10085,18 @@
         <v>0</v>
       </c>
       <c r="AX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9496,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
@@ -9508,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="AK59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" t="n">
         <v>0</v>
@@ -9547,6 +10251,18 @@
         <v>0</v>
       </c>
       <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9650,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" t="n">
         <v>0</v>
@@ -9662,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" t="n">
         <v>0</v>
@@ -9701,6 +10417,18 @@
         <v>0</v>
       </c>
       <c r="AX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9804,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH61" t="n">
         <v>0</v>
@@ -9816,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="AK61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" t="n">
         <v>0</v>
@@ -9855,6 +10583,18 @@
         <v>0</v>
       </c>
       <c r="AX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9907,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -9964,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
         <v>0</v>
@@ -9976,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="AM62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN62" t="n">
         <v>0</v>
@@ -10009,6 +10749,18 @@
         <v>0</v>
       </c>
       <c r="AX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10061,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -10118,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="AI63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="n">
         <v>0</v>
@@ -10130,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN63" t="n">
         <v>0</v>
@@ -10163,6 +10915,18 @@
         <v>0</v>
       </c>
       <c r="AX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10215,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -10272,7 +11036,7 @@
         <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" t="n">
         <v>0</v>
@@ -10284,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="AM64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN64" t="n">
         <v>0</v>
@@ -10317,6 +11081,18 @@
         <v>0</v>
       </c>
       <c r="AX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10369,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -10426,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" t="n">
         <v>0</v>
@@ -10438,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN65" t="n">
         <v>0</v>
@@ -10471,6 +11247,18 @@
         <v>0</v>
       </c>
       <c r="AX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10523,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -10580,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" t="n">
         <v>0</v>
@@ -10592,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN66" t="n">
         <v>0</v>
@@ -10625,6 +11413,18 @@
         <v>0</v>
       </c>
       <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10677,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -10734,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67" t="n">
         <v>0</v>
@@ -10746,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="AM67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN67" t="n">
         <v>0</v>
@@ -10779,6 +11579,18 @@
         <v>0</v>
       </c>
       <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10831,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -10888,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" t="n">
         <v>0</v>
@@ -10900,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="AM68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN68" t="n">
         <v>0</v>
@@ -10933,6 +11745,18 @@
         <v>0</v>
       </c>
       <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10985,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -11042,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ69" t="n">
         <v>0</v>
@@ -11054,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69" t="n">
         <v>0</v>
@@ -11087,6 +11911,18 @@
         <v>0</v>
       </c>
       <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11139,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -11196,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ70" t="n">
         <v>0</v>
@@ -11208,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AM70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70" t="n">
         <v>0</v>
@@ -11241,6 +12077,18 @@
         <v>0</v>
       </c>
       <c r="AX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11293,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -11350,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="AI71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ71" t="n">
         <v>0</v>
@@ -11362,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN71" t="n">
         <v>0</v>
@@ -11395,6 +12243,18 @@
         <v>0</v>
       </c>
       <c r="AX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11438,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -11489,7 +12349,7 @@
         <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
         <v>0</v>
@@ -11522,10 +12382,10 @@
         <v>0</v>
       </c>
       <c r="AO72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" t="n">
         <v>0</v>
@@ -11537,18 +12397,30 @@
         <v>0</v>
       </c>
       <c r="AT72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>0</v>
       </c>
       <c r="AV72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW72" t="n">
         <v>0</v>
       </c>
       <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11592,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -11643,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
         <v>0</v>
@@ -11676,10 +12548,10 @@
         <v>0</v>
       </c>
       <c r="AO73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" t="n">
         <v>0</v>
@@ -11691,18 +12563,30 @@
         <v>0</v>
       </c>
       <c r="AT73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>0</v>
       </c>
       <c r="AV73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW73" t="n">
         <v>0</v>
       </c>
       <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11746,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -11797,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="AD74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE74" t="n">
         <v>0</v>
@@ -11830,10 +12714,10 @@
         <v>0</v>
       </c>
       <c r="AO74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ74" t="n">
         <v>0</v>
@@ -11845,18 +12729,30 @@
         <v>0</v>
       </c>
       <c r="AT74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>0</v>
       </c>
       <c r="AV74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW74" t="n">
         <v>0</v>
       </c>
       <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11900,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -11951,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
         <v>0</v>
@@ -11984,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="AO75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ75" t="n">
         <v>0</v>
@@ -11999,18 +12895,30 @@
         <v>0</v>
       </c>
       <c r="AT75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>0</v>
       </c>
       <c r="AV75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW75" t="n">
         <v>0</v>
       </c>
       <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12054,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -12105,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
         <v>0</v>
@@ -12138,10 +13046,10 @@
         <v>0</v>
       </c>
       <c r="AO76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ76" t="n">
         <v>0</v>
@@ -12153,18 +13061,30 @@
         <v>0</v>
       </c>
       <c r="AT76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>0</v>
       </c>
       <c r="AV76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW76" t="n">
         <v>0</v>
       </c>
       <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12208,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -12259,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
         <v>0</v>
@@ -12292,10 +13212,10 @@
         <v>0</v>
       </c>
       <c r="AO77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ77" t="n">
         <v>0</v>
@@ -12307,18 +13227,30 @@
         <v>0</v>
       </c>
       <c r="AT77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>0</v>
       </c>
       <c r="AV77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW77" t="n">
         <v>0</v>
       </c>
       <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12362,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -12413,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
         <v>0</v>
@@ -12446,10 +13378,10 @@
         <v>0</v>
       </c>
       <c r="AO78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ78" t="n">
         <v>0</v>
@@ -12461,18 +13393,30 @@
         <v>0</v>
       </c>
       <c r="AT78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>0</v>
       </c>
       <c r="AV78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW78" t="n">
         <v>0</v>
       </c>
       <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12516,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -12567,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="AD79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE79" t="n">
         <v>0</v>
@@ -12600,10 +13544,10 @@
         <v>0</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ79" t="n">
         <v>0</v>
@@ -12615,18 +13559,30 @@
         <v>0</v>
       </c>
       <c r="AT79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>0</v>
       </c>
       <c r="AV79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW79" t="n">
         <v>0</v>
       </c>
       <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12670,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -12721,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE80" t="n">
         <v>0</v>
@@ -12754,10 +13710,10 @@
         <v>0</v>
       </c>
       <c r="AO80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ80" t="n">
         <v>0</v>
@@ -12769,18 +13725,30 @@
         <v>0</v>
       </c>
       <c r="AT80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
       </c>
       <c r="AV80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW80" t="n">
         <v>0</v>
       </c>
       <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12824,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -12875,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE81" t="n">
         <v>0</v>
@@ -12908,10 +13876,10 @@
         <v>0</v>
       </c>
       <c r="AO81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ81" t="n">
         <v>0</v>
@@ -12923,18 +13891,30 @@
         <v>0</v>
       </c>
       <c r="AT81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>0</v>
       </c>
       <c r="AV81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW81" t="n">
         <v>0</v>
       </c>
       <c r="AX81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12978,10 +13958,10 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -13089,6 +14069,18 @@
         <v>0</v>
       </c>
       <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13132,10 +14124,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -13243,6 +14235,18 @@
         <v>0</v>
       </c>
       <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13286,10 +14290,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -13397,6 +14401,18 @@
         <v>0</v>
       </c>
       <c r="AX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13440,10 +14456,10 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -13551,6 +14567,18 @@
         <v>0</v>
       </c>
       <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13594,10 +14622,10 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -13705,6 +14733,18 @@
         <v>0</v>
       </c>
       <c r="AX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13748,10 +14788,10 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -13859,6 +14899,18 @@
         <v>0</v>
       </c>
       <c r="AX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13902,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -14013,6 +15065,18 @@
         <v>0</v>
       </c>
       <c r="AX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14056,10 +15120,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -14167,6 +15231,18 @@
         <v>0</v>
       </c>
       <c r="AX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14210,10 +15286,10 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -14321,6 +15397,18 @@
         <v>0</v>
       </c>
       <c r="AX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14364,10 +15452,10 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -14475,6 +15563,18 @@
         <v>0</v>
       </c>
       <c r="AX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14515,10 +15615,10 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -14539,13 +15639,13 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -14590,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="AK92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92" t="n">
         <v>0</v>
@@ -14602,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP92" t="n">
         <v>0</v>
@@ -14611,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="AR92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS92" t="n">
         <v>0</v>
@@ -14623,12 +15723,24 @@
         <v>0</v>
       </c>
       <c r="AV92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW92" t="n">
         <v>0</v>
       </c>
       <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14726,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF93" t="n">
         <v>0</v>
@@ -14759,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="AP93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ93" t="n">
         <v>0</v>
@@ -14771,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="AT93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>0</v>
@@ -14783,6 +15895,18 @@
         <v>0</v>
       </c>
       <c r="AX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14847,13 +15971,13 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -14871,7 +15995,7 @@
         <v>0</v>
       </c>
       <c r="AB94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94" t="n">
         <v>0</v>
@@ -14880,13 +16004,13 @@
         <v>0</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF94" t="n">
         <v>0</v>
       </c>
       <c r="AG94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH94" t="n">
         <v>0</v>
@@ -14910,33 +16034,45 @@
         <v>0</v>
       </c>
       <c r="AO94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ94" t="n">
         <v>0</v>
       </c>
       <c r="AR94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS94" t="n">
         <v>0</v>
       </c>
       <c r="AT94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>0</v>
       </c>
       <c r="AV94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW94" t="n">
         <v>0</v>
       </c>
       <c r="AX94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14977,10 +16113,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -15001,13 +16137,13 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -15034,13 +16170,13 @@
         <v>0</v>
       </c>
       <c r="AE95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF95" t="n">
         <v>0</v>
       </c>
       <c r="AG95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH95" t="n">
         <v>0</v>
@@ -15064,10 +16200,10 @@
         <v>0</v>
       </c>
       <c r="AO95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ95" t="n">
         <v>0</v>
@@ -15079,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="AT95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>0</v>
@@ -15091,6 +16227,18 @@
         <v>0</v>
       </c>
       <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15131,10 +16279,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -15155,13 +16303,13 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96" t="n">
         <v>0</v>
@@ -15188,13 +16336,13 @@
         <v>0</v>
       </c>
       <c r="AE96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF96" t="n">
         <v>0</v>
       </c>
       <c r="AG96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH96" t="n">
         <v>0</v>
@@ -15218,10 +16366,10 @@
         <v>0</v>
       </c>
       <c r="AO96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ96" t="n">
         <v>0</v>
@@ -15233,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="AT96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>0</v>
@@ -15245,6 +16393,18 @@
         <v>0</v>
       </c>
       <c r="AX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15285,10 +16445,10 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -15309,13 +16469,13 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -15342,13 +16502,13 @@
         <v>0</v>
       </c>
       <c r="AE97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF97" t="n">
         <v>0</v>
       </c>
       <c r="AG97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH97" t="n">
         <v>0</v>
@@ -15372,10 +16532,10 @@
         <v>0</v>
       </c>
       <c r="AO97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ97" t="n">
         <v>0</v>
@@ -15387,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="AT97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>0</v>
@@ -15399,6 +16559,18 @@
         <v>0</v>
       </c>
       <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15439,10 +16611,10 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -15463,13 +16635,13 @@
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
@@ -15484,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="AA98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB98" t="n">
         <v>1</v>
@@ -15493,19 +16665,19 @@
         <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF98" t="n">
         <v>0</v>
       </c>
       <c r="AG98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI98" t="n">
         <v>0</v>
@@ -15526,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="AO98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP98" t="n">
         <v>1</v>
@@ -15541,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="AT98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>0</v>
@@ -15553,6 +16725,18 @@
         <v>0</v>
       </c>
       <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15593,10 +16777,10 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -15617,13 +16801,13 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W99" t="n">
         <v>0</v>
@@ -15638,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="AA99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99" t="n">
         <v>1</v>
@@ -15647,19 +16831,19 @@
         <v>0</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF99" t="n">
         <v>0</v>
       </c>
       <c r="AG99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI99" t="n">
         <v>0</v>
@@ -15680,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP99" t="n">
         <v>1</v>
@@ -15695,7 +16879,7 @@
         <v>0</v>
       </c>
       <c r="AT99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>0</v>
@@ -15707,6 +16891,18 @@
         <v>0</v>
       </c>
       <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15747,10 +16943,10 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -15771,13 +16967,13 @@
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
@@ -15792,7 +16988,7 @@
         <v>0</v>
       </c>
       <c r="AA100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB100" t="n">
         <v>1</v>
@@ -15804,7 +17000,7 @@
         <v>1</v>
       </c>
       <c r="AE100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF100" t="n">
         <v>0</v>
@@ -15813,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="AH100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI100" t="n">
         <v>0</v>
@@ -15834,7 +17030,7 @@
         <v>0</v>
       </c>
       <c r="AO100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP100" t="n">
         <v>1</v>
@@ -15849,7 +17045,7 @@
         <v>0</v>
       </c>
       <c r="AT100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>0</v>
@@ -15861,6 +17057,18 @@
         <v>0</v>
       </c>
       <c r="AX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15901,10 +17109,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -15925,13 +17133,13 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
@@ -15946,7 +17154,7 @@
         <v>0</v>
       </c>
       <c r="AA101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB101" t="n">
         <v>1</v>
@@ -15958,7 +17166,7 @@
         <v>1</v>
       </c>
       <c r="AE101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF101" t="n">
         <v>0</v>
@@ -15967,7 +17175,7 @@
         <v>1</v>
       </c>
       <c r="AH101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI101" t="n">
         <v>0</v>
@@ -15988,7 +17196,7 @@
         <v>0</v>
       </c>
       <c r="AO101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP101" t="n">
         <v>1</v>
@@ -15997,13 +17205,13 @@
         <v>0</v>
       </c>
       <c r="AR101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS101" t="n">
         <v>0</v>
       </c>
       <c r="AT101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>0</v>
@@ -16015,6 +17223,18 @@
         <v>0</v>
       </c>
       <c r="AX101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16118,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="AG102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH102" t="n">
         <v>0</v>
@@ -16130,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="AK102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" t="n">
         <v>0</v>
@@ -16169,6 +17389,18 @@
         <v>0</v>
       </c>
       <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16272,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="AG103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH103" t="n">
         <v>0</v>
@@ -16284,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="AK103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL103" t="n">
         <v>0</v>
@@ -16323,6 +17555,18 @@
         <v>0</v>
       </c>
       <c r="AX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16426,7 +17670,7 @@
         <v>0</v>
       </c>
       <c r="AG104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH104" t="n">
         <v>0</v>
@@ -16438,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL104" t="n">
         <v>0</v>
@@ -16477,6 +17721,18 @@
         <v>0</v>
       </c>
       <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16580,7 +17836,7 @@
         <v>0</v>
       </c>
       <c r="AG105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH105" t="n">
         <v>0</v>
@@ -16592,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="AK105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105" t="n">
         <v>0</v>
@@ -16631,6 +17887,18 @@
         <v>0</v>
       </c>
       <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16734,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="AG106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH106" t="n">
         <v>0</v>
@@ -16746,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="AK106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106" t="n">
         <v>0</v>
@@ -16785,6 +18053,18 @@
         <v>0</v>
       </c>
       <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16888,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="AG107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH107" t="n">
         <v>0</v>
@@ -16900,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="AK107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL107" t="n">
         <v>0</v>
@@ -16939,6 +18219,18 @@
         <v>0</v>
       </c>
       <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17042,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="AG108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH108" t="n">
         <v>0</v>
@@ -17054,7 +18346,7 @@
         <v>0</v>
       </c>
       <c r="AK108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL108" t="n">
         <v>0</v>
@@ -17093,6 +18385,18 @@
         <v>0</v>
       </c>
       <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17196,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="AG109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH109" t="n">
         <v>0</v>
@@ -17208,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="AK109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL109" t="n">
         <v>0</v>
@@ -17247,6 +18551,18 @@
         <v>0</v>
       </c>
       <c r="AX109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17350,7 +18666,7 @@
         <v>0</v>
       </c>
       <c r="AG110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH110" t="n">
         <v>0</v>
@@ -17362,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="AK110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL110" t="n">
         <v>0</v>
@@ -17401,6 +18717,18 @@
         <v>0</v>
       </c>
       <c r="AX110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17504,7 +18832,7 @@
         <v>0</v>
       </c>
       <c r="AG111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH111" t="n">
         <v>0</v>
@@ -17516,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="AK111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL111" t="n">
         <v>0</v>
@@ -17555,6 +18883,18 @@
         <v>0</v>
       </c>
       <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17598,10 +18938,10 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -17670,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AK112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112" t="n">
         <v>0</v>
@@ -17682,7 +19022,7 @@
         <v>0</v>
       </c>
       <c r="AO112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP112" t="n">
         <v>0</v>
@@ -17709,6 +19049,18 @@
         <v>0</v>
       </c>
       <c r="AX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17752,10 +19104,10 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
@@ -17824,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="AK113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL113" t="n">
         <v>0</v>
@@ -17836,7 +19188,7 @@
         <v>0</v>
       </c>
       <c r="AO113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP113" t="n">
         <v>0</v>
@@ -17863,6 +19215,18 @@
         <v>0</v>
       </c>
       <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17906,10 +19270,10 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -17978,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="AK114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL114" t="n">
         <v>0</v>
@@ -17990,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="AO114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP114" t="n">
         <v>0</v>
@@ -18017,6 +19381,18 @@
         <v>0</v>
       </c>
       <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18060,10 +19436,10 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -18132,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="AK115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL115" t="n">
         <v>0</v>
@@ -18144,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="AO115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP115" t="n">
         <v>0</v>
@@ -18171,6 +19547,18 @@
         <v>0</v>
       </c>
       <c r="AX115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18214,10 +19602,10 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -18286,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="AK116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL116" t="n">
         <v>0</v>
@@ -18298,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="AO116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP116" t="n">
         <v>0</v>
@@ -18325,6 +19713,18 @@
         <v>0</v>
       </c>
       <c r="AX116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18368,10 +19768,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -18440,7 +19840,7 @@
         <v>0</v>
       </c>
       <c r="AK117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL117" t="n">
         <v>0</v>
@@ -18452,7 +19852,7 @@
         <v>0</v>
       </c>
       <c r="AO117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP117" t="n">
         <v>0</v>
@@ -18479,6 +19879,18 @@
         <v>0</v>
       </c>
       <c r="AX117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18522,10 +19934,10 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -18594,7 +20006,7 @@
         <v>0</v>
       </c>
       <c r="AK118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL118" t="n">
         <v>0</v>
@@ -18606,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="AO118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP118" t="n">
         <v>0</v>
@@ -18633,6 +20045,18 @@
         <v>0</v>
       </c>
       <c r="AX118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18676,10 +20100,10 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
@@ -18748,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="AK119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL119" t="n">
         <v>0</v>
@@ -18760,7 +20184,7 @@
         <v>0</v>
       </c>
       <c r="AO119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP119" t="n">
         <v>0</v>
@@ -18787,6 +20211,18 @@
         <v>0</v>
       </c>
       <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18830,10 +20266,10 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -18902,7 +20338,7 @@
         <v>0</v>
       </c>
       <c r="AK120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL120" t="n">
         <v>0</v>
@@ -18914,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="AO120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP120" t="n">
         <v>0</v>
@@ -18941,6 +20377,18 @@
         <v>0</v>
       </c>
       <c r="AX120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18984,10 +20432,10 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -19056,7 +20504,7 @@
         <v>0</v>
       </c>
       <c r="AK121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL121" t="n">
         <v>0</v>
@@ -19068,7 +20516,7 @@
         <v>0</v>
       </c>
       <c r="AO121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP121" t="n">
         <v>0</v>
@@ -19095,6 +20543,18 @@
         <v>0</v>
       </c>
       <c r="AX121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB121" t="n">
         <v>0</v>
       </c>
     </row>

--- a/resources/historical.xlsx
+++ b/resources/historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB121"/>
+  <dimension ref="A1:BF121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,12 +394,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Vituoso</t>
+          <t>MarkLogic-NoSql</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MarkLogic-NoSql</t>
+          <t>Virtuoso-Sql</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -509,130 +509,150 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Virtuoso-NoSql</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>IBM DB2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>MariaDB</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>HBase</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>MarkLogic</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>MongoDB</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>MicrosoftAzureTableStorage</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Ignite-Sql</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>OrientDB</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Neo4j</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>MarkLogic-Sql</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>CouchDB</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>DynamoDB</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Couchbase</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Cassandra</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Virtuoso</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Cosmos BD</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>SapHana</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Realm</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Ehcache</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>AmazonRedshift</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>MS SQL Server</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Hive</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Hazelcast</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Teradata</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Elasticsearch</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Ignite-NoSql</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Redis</t>
         </is>
@@ -750,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -771,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -801,6 +821,18 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -916,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -937,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -967,6 +999,18 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1082,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -1103,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1133,6 +1177,18 @@
         <v>0</v>
       </c>
       <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1248,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -1269,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -1299,6 +1355,18 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1414,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1435,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
@@ -1465,6 +1533,18 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1580,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -1601,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -1631,6 +1711,18 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -1767,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -1797,6 +1889,18 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1912,19 +2016,19 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -1933,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -1963,6 +2067,18 @@
         <v>0</v>
       </c>
       <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2078,19 +2194,19 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -2099,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -2129,6 +2245,18 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2244,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -2265,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2295,6 +2423,18 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2392,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -2416,51 +2556,63 @@
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" t="n">
         <v>0</v>
       </c>
       <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2558,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2582,51 +2734,63 @@
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" t="n">
         <v>0</v>
       </c>
       <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2724,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -2748,51 +2912,63 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" t="n">
         <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" t="n">
         <v>0</v>
       </c>
       <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2914,51 +3090,63 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" t="n">
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" t="n">
         <v>0</v>
       </c>
       <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3056,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -3080,51 +3268,63 @@
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" t="n">
         <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" t="n">
         <v>0</v>
       </c>
       <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3222,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -3246,51 +3446,63 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" t="n">
         <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" t="n">
         <v>0</v>
       </c>
       <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3388,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
@@ -3412,51 +3624,63 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" t="n">
         <v>0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" t="n">
         <v>0</v>
       </c>
       <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -3578,51 +3802,63 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" t="n">
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" t="n">
         <v>0</v>
       </c>
       <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3720,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -3744,51 +3980,63 @@
         <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" t="n">
         <v>0</v>
       </c>
       <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3886,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3910,51 +4158,63 @@
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
         <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" t="n">
         <v>0</v>
       </c>
       <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4123,6 +4383,18 @@
       <c r="BB22" t="n">
         <v>0</v>
       </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4289,6 +4561,18 @@
       <c r="BB23" t="n">
         <v>0</v>
       </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4455,6 +4739,18 @@
       <c r="BB24" t="n">
         <v>0</v>
       </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4621,6 +4917,18 @@
       <c r="BB25" t="n">
         <v>0</v>
       </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4787,6 +5095,18 @@
       <c r="BB26" t="n">
         <v>0</v>
       </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4953,6 +5273,18 @@
       <c r="BB27" t="n">
         <v>0</v>
       </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5119,6 +5451,18 @@
       <c r="BB28" t="n">
         <v>0</v>
       </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5285,6 +5629,18 @@
       <c r="BB29" t="n">
         <v>0</v>
       </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5451,6 +5807,18 @@
       <c r="BB30" t="n">
         <v>0</v>
       </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5617,6 +5985,18 @@
       <c r="BB31" t="n">
         <v>0</v>
       </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5709,34 +6089,34 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
         <v>1</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" t="n">
         <v>1</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -5745,31 +6125,31 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY32" t="n">
         <v>0</v>
@@ -5781,6 +6161,18 @@
         <v>0</v>
       </c>
       <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5875,34 +6267,34 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>1</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
@@ -5911,31 +6303,31 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
         <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33" t="n">
         <v>0</v>
@@ -5947,6 +6339,18 @@
         <v>0</v>
       </c>
       <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6041,34 +6445,34 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>1</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -6077,31 +6481,31 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" t="n">
         <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
       </c>
       <c r="AX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34" t="n">
         <v>0</v>
@@ -6113,6 +6517,18 @@
         <v>0</v>
       </c>
       <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,34 +6623,34 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
         <v>1</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -6243,31 +6659,31 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" t="n">
         <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
         <v>0</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" t="n">
         <v>0</v>
@@ -6279,6 +6695,18 @@
         <v>0</v>
       </c>
       <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6373,34 +6801,34 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
         <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
         <v>1</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
@@ -6409,31 +6837,31 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
       </c>
       <c r="AX36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY36" t="n">
         <v>0</v>
@@ -6445,6 +6873,18 @@
         <v>0</v>
       </c>
       <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,34 +6979,34 @@
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="n">
         <v>1</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
@@ -6575,31 +7015,31 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" t="n">
         <v>0</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW37" t="n">
         <v>0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37" t="n">
         <v>0</v>
@@ -6611,6 +7051,18 @@
         <v>0</v>
       </c>
       <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6705,34 +7157,34 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>1</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
         <v>1</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
@@ -6741,31 +7193,31 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" t="n">
         <v>0</v>
       </c>
       <c r="AR38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
         <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY38" t="n">
         <v>0</v>
@@ -6777,6 +7229,18 @@
         <v>0</v>
       </c>
       <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,34 +7335,34 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
         <v>1</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
         <v>1</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -6907,31 +7371,31 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW39" t="n">
         <v>0</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY39" t="n">
         <v>0</v>
@@ -6943,6 +7407,18 @@
         <v>0</v>
       </c>
       <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7037,34 +7513,34 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>1</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
         <v>1</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN40" t="n">
         <v>0</v>
@@ -7073,31 +7549,31 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" t="n">
         <v>0</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
       </c>
       <c r="AX40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY40" t="n">
         <v>0</v>
@@ -7109,6 +7585,18 @@
         <v>0</v>
       </c>
       <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,34 +7691,34 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>1</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" t="n">
         <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" t="n">
         <v>1</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41" t="n">
         <v>0</v>
@@ -7239,31 +7727,31 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW41" t="n">
         <v>0</v>
       </c>
       <c r="AX41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY41" t="n">
         <v>0</v>
@@ -7275,6 +7763,18 @@
         <v>0</v>
       </c>
       <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7372,16 +7872,16 @@
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
@@ -7393,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN42" t="n">
         <v>0</v>
@@ -7411,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
@@ -7435,12 +7935,24 @@
         <v>0</v>
       </c>
       <c r="AZ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" t="n">
         <v>0</v>
       </c>
       <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7538,16 +8050,16 @@
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
@@ -7559,10 +8071,10 @@
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
@@ -7577,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
@@ -7601,12 +8113,24 @@
         <v>0</v>
       </c>
       <c r="AZ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" t="n">
         <v>0</v>
       </c>
       <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7704,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" t="n">
         <v>0</v>
@@ -7725,10 +8249,10 @@
         <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
         <v>0</v>
@@ -7743,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
@@ -7767,12 +8291,24 @@
         <v>0</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44" t="n">
         <v>0</v>
       </c>
       <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7870,16 +8406,16 @@
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" t="n">
         <v>0</v>
@@ -7891,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="n">
         <v>0</v>
@@ -7909,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="AR45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
@@ -7933,12 +8469,24 @@
         <v>0</v>
       </c>
       <c r="AZ45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" t="n">
         <v>0</v>
       </c>
       <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8036,16 +8584,16 @@
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46" t="n">
         <v>0</v>
@@ -8057,10 +8605,10 @@
         <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
@@ -8075,10 +8623,10 @@
         <v>0</v>
       </c>
       <c r="AR46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>0</v>
@@ -8099,12 +8647,24 @@
         <v>0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" t="n">
         <v>0</v>
       </c>
       <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8202,16 +8762,16 @@
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" t="n">
         <v>0</v>
@@ -8223,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
@@ -8241,10 +8801,10 @@
         <v>0</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>0</v>
@@ -8265,12 +8825,24 @@
         <v>0</v>
       </c>
       <c r="AZ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" t="n">
         <v>0</v>
       </c>
       <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8368,16 +8940,16 @@
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
@@ -8389,10 +8961,10 @@
         <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
         <v>0</v>
@@ -8407,10 +8979,10 @@
         <v>0</v>
       </c>
       <c r="AR48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
@@ -8431,12 +9003,24 @@
         <v>0</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA48" t="n">
         <v>0</v>
       </c>
       <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8534,16 +9118,16 @@
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" t="n">
         <v>0</v>
@@ -8555,10 +9139,10 @@
         <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
         <v>0</v>
@@ -8573,10 +9157,10 @@
         <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
@@ -8597,12 +9181,24 @@
         <v>0</v>
       </c>
       <c r="AZ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA49" t="n">
         <v>0</v>
       </c>
       <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8700,16 +9296,16 @@
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" t="n">
         <v>0</v>
@@ -8721,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN50" t="n">
         <v>0</v>
@@ -8739,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="AR50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -8763,12 +9359,24 @@
         <v>0</v>
       </c>
       <c r="AZ50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" t="n">
         <v>0</v>
       </c>
       <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8866,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" t="n">
         <v>0</v>
@@ -8887,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
@@ -8905,10 +9513,10 @@
         <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -8929,12 +9537,24 @@
         <v>0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" t="n">
         <v>0</v>
       </c>
       <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9050,13 +9670,13 @@
         <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" t="n">
         <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN52" t="n">
         <v>0</v>
@@ -9101,6 +9721,18 @@
         <v>0</v>
       </c>
       <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9216,13 +9848,13 @@
         <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" t="n">
         <v>0</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" t="n">
         <v>0</v>
@@ -9267,6 +9899,18 @@
         <v>0</v>
       </c>
       <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9382,13 +10026,13 @@
         <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" t="n">
         <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN54" t="n">
         <v>0</v>
@@ -9433,6 +10077,18 @@
         <v>0</v>
       </c>
       <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9548,13 +10204,13 @@
         <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="n">
         <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN55" t="n">
         <v>0</v>
@@ -9599,6 +10255,18 @@
         <v>0</v>
       </c>
       <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9714,13 +10382,13 @@
         <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" t="n">
         <v>0</v>
       </c>
       <c r="AM56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56" t="n">
         <v>0</v>
@@ -9765,6 +10433,18 @@
         <v>0</v>
       </c>
       <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9880,13 +10560,13 @@
         <v>0</v>
       </c>
       <c r="AK57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" t="n">
         <v>0</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN57" t="n">
         <v>0</v>
@@ -9931,6 +10611,18 @@
         <v>0</v>
       </c>
       <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10046,13 +10738,13 @@
         <v>0</v>
       </c>
       <c r="AK58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" t="n">
         <v>0</v>
       </c>
       <c r="AM58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN58" t="n">
         <v>0</v>
@@ -10097,6 +10789,18 @@
         <v>0</v>
       </c>
       <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10212,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="AK59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" t="n">
         <v>0</v>
       </c>
       <c r="AM59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN59" t="n">
         <v>0</v>
@@ -10263,6 +10967,18 @@
         <v>0</v>
       </c>
       <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10378,13 +11094,13 @@
         <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="n">
         <v>0</v>
       </c>
       <c r="AM60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN60" t="n">
         <v>0</v>
@@ -10429,6 +11145,18 @@
         <v>0</v>
       </c>
       <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10544,13 +11272,13 @@
         <v>0</v>
       </c>
       <c r="AK61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" t="n">
         <v>0</v>
       </c>
       <c r="AM61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN61" t="n">
         <v>0</v>
@@ -10595,6 +11323,18 @@
         <v>0</v>
       </c>
       <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10716,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AM62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN62" t="n">
         <v>0</v>
@@ -10725,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
         <v>0</v>
@@ -10761,6 +11501,18 @@
         <v>0</v>
       </c>
       <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10882,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63" t="n">
         <v>0</v>
@@ -10891,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63" t="n">
         <v>0</v>
@@ -10927,6 +11679,18 @@
         <v>0</v>
       </c>
       <c r="BB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11048,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="AM64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN64" t="n">
         <v>0</v>
@@ -11057,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64" t="n">
         <v>0</v>
@@ -11093,6 +11857,18 @@
         <v>0</v>
       </c>
       <c r="BB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11214,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="AM65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN65" t="n">
         <v>0</v>
@@ -11223,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
         <v>0</v>
@@ -11259,6 +12035,18 @@
         <v>0</v>
       </c>
       <c r="BB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11380,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN66" t="n">
         <v>0</v>
@@ -11389,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ66" t="n">
         <v>0</v>
@@ -11425,6 +12213,18 @@
         <v>0</v>
       </c>
       <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11546,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="AM67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN67" t="n">
         <v>0</v>
@@ -11555,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ67" t="n">
         <v>0</v>
@@ -11591,6 +12391,18 @@
         <v>0</v>
       </c>
       <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11712,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="AM68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN68" t="n">
         <v>0</v>
@@ -11721,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ68" t="n">
         <v>0</v>
@@ -11757,6 +12569,18 @@
         <v>0</v>
       </c>
       <c r="BB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11878,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN69" t="n">
         <v>0</v>
@@ -11887,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" t="n">
         <v>0</v>
@@ -11923,6 +12747,18 @@
         <v>0</v>
       </c>
       <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12044,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="AM70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN70" t="n">
         <v>0</v>
@@ -12053,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ70" t="n">
         <v>0</v>
@@ -12089,6 +12925,18 @@
         <v>0</v>
       </c>
       <c r="BB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12210,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="AM71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN71" t="n">
         <v>0</v>
@@ -12219,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
         <v>0</v>
@@ -12255,6 +13103,18 @@
         <v>0</v>
       </c>
       <c r="BB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12358,10 +13218,10 @@
         <v>0</v>
       </c>
       <c r="AG72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI72" t="n">
         <v>0</v>
@@ -12370,19 +13230,19 @@
         <v>0</v>
       </c>
       <c r="AK72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" t="n">
         <v>0</v>
       </c>
       <c r="AM72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN72" t="n">
         <v>0</v>
       </c>
       <c r="AO72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP72" t="n">
         <v>0</v>
@@ -12391,13 +13251,13 @@
         <v>0</v>
       </c>
       <c r="AR72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS72" t="n">
         <v>0</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU72" t="n">
         <v>0</v>
@@ -12409,18 +13269,30 @@
         <v>0</v>
       </c>
       <c r="AX72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY72" t="n">
         <v>0</v>
       </c>
       <c r="AZ72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA72" t="n">
         <v>0</v>
       </c>
       <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12524,10 +13396,10 @@
         <v>0</v>
       </c>
       <c r="AG73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI73" t="n">
         <v>0</v>
@@ -12536,19 +13408,19 @@
         <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" t="n">
         <v>0</v>
       </c>
       <c r="AM73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN73" t="n">
         <v>0</v>
       </c>
       <c r="AO73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP73" t="n">
         <v>0</v>
@@ -12557,13 +13429,13 @@
         <v>0</v>
       </c>
       <c r="AR73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS73" t="n">
         <v>0</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU73" t="n">
         <v>0</v>
@@ -12575,18 +13447,30 @@
         <v>0</v>
       </c>
       <c r="AX73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY73" t="n">
         <v>0</v>
       </c>
       <c r="AZ73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA73" t="n">
         <v>0</v>
       </c>
       <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12690,10 +13574,10 @@
         <v>0</v>
       </c>
       <c r="AG74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI74" t="n">
         <v>0</v>
@@ -12702,19 +13586,19 @@
         <v>0</v>
       </c>
       <c r="AK74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" t="n">
         <v>0</v>
       </c>
       <c r="AM74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN74" t="n">
         <v>0</v>
       </c>
       <c r="AO74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP74" t="n">
         <v>0</v>
@@ -12723,13 +13607,13 @@
         <v>0</v>
       </c>
       <c r="AR74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS74" t="n">
         <v>0</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU74" t="n">
         <v>0</v>
@@ -12741,18 +13625,30 @@
         <v>0</v>
       </c>
       <c r="AX74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY74" t="n">
         <v>0</v>
       </c>
       <c r="AZ74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA74" t="n">
         <v>0</v>
       </c>
       <c r="BB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12856,10 +13752,10 @@
         <v>0</v>
       </c>
       <c r="AG75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI75" t="n">
         <v>0</v>
@@ -12868,19 +13764,19 @@
         <v>0</v>
       </c>
       <c r="AK75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" t="n">
         <v>0</v>
       </c>
       <c r="AM75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN75" t="n">
         <v>0</v>
       </c>
       <c r="AO75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP75" t="n">
         <v>0</v>
@@ -12889,13 +13785,13 @@
         <v>0</v>
       </c>
       <c r="AR75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS75" t="n">
         <v>0</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU75" t="n">
         <v>0</v>
@@ -12907,18 +13803,30 @@
         <v>0</v>
       </c>
       <c r="AX75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY75" t="n">
         <v>0</v>
       </c>
       <c r="AZ75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA75" t="n">
         <v>0</v>
       </c>
       <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13022,10 +13930,10 @@
         <v>0</v>
       </c>
       <c r="AG76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI76" t="n">
         <v>0</v>
@@ -13034,19 +13942,19 @@
         <v>0</v>
       </c>
       <c r="AK76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" t="n">
         <v>0</v>
       </c>
       <c r="AM76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN76" t="n">
         <v>0</v>
       </c>
       <c r="AO76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP76" t="n">
         <v>0</v>
@@ -13055,13 +13963,13 @@
         <v>0</v>
       </c>
       <c r="AR76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS76" t="n">
         <v>0</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU76" t="n">
         <v>0</v>
@@ -13073,18 +13981,30 @@
         <v>0</v>
       </c>
       <c r="AX76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY76" t="n">
         <v>0</v>
       </c>
       <c r="AZ76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA76" t="n">
         <v>0</v>
       </c>
       <c r="BB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13188,10 +14108,10 @@
         <v>0</v>
       </c>
       <c r="AG77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI77" t="n">
         <v>0</v>
@@ -13200,19 +14120,19 @@
         <v>0</v>
       </c>
       <c r="AK77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" t="n">
         <v>0</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN77" t="n">
         <v>0</v>
       </c>
       <c r="AO77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP77" t="n">
         <v>0</v>
@@ -13221,13 +14141,13 @@
         <v>0</v>
       </c>
       <c r="AR77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS77" t="n">
         <v>0</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU77" t="n">
         <v>0</v>
@@ -13239,18 +14159,30 @@
         <v>0</v>
       </c>
       <c r="AX77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY77" t="n">
         <v>0</v>
       </c>
       <c r="AZ77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA77" t="n">
         <v>0</v>
       </c>
       <c r="BB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13354,10 +14286,10 @@
         <v>0</v>
       </c>
       <c r="AG78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI78" t="n">
         <v>0</v>
@@ -13366,19 +14298,19 @@
         <v>0</v>
       </c>
       <c r="AK78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" t="n">
         <v>0</v>
       </c>
       <c r="AM78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN78" t="n">
         <v>0</v>
       </c>
       <c r="AO78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP78" t="n">
         <v>0</v>
@@ -13387,13 +14319,13 @@
         <v>0</v>
       </c>
       <c r="AR78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS78" t="n">
         <v>0</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU78" t="n">
         <v>0</v>
@@ -13405,18 +14337,30 @@
         <v>0</v>
       </c>
       <c r="AX78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY78" t="n">
         <v>0</v>
       </c>
       <c r="AZ78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA78" t="n">
         <v>0</v>
       </c>
       <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13520,10 +14464,10 @@
         <v>0</v>
       </c>
       <c r="AG79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI79" t="n">
         <v>0</v>
@@ -13532,19 +14476,19 @@
         <v>0</v>
       </c>
       <c r="AK79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79" t="n">
         <v>0</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN79" t="n">
         <v>0</v>
       </c>
       <c r="AO79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP79" t="n">
         <v>0</v>
@@ -13553,13 +14497,13 @@
         <v>0</v>
       </c>
       <c r="AR79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS79" t="n">
         <v>0</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU79" t="n">
         <v>0</v>
@@ -13571,18 +14515,30 @@
         <v>0</v>
       </c>
       <c r="AX79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY79" t="n">
         <v>0</v>
       </c>
       <c r="AZ79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA79" t="n">
         <v>0</v>
       </c>
       <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13686,10 +14642,10 @@
         <v>0</v>
       </c>
       <c r="AG80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI80" t="n">
         <v>0</v>
@@ -13698,19 +14654,19 @@
         <v>0</v>
       </c>
       <c r="AK80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80" t="n">
         <v>0</v>
       </c>
       <c r="AM80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN80" t="n">
         <v>0</v>
       </c>
       <c r="AO80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP80" t="n">
         <v>0</v>
@@ -13719,13 +14675,13 @@
         <v>0</v>
       </c>
       <c r="AR80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS80" t="n">
         <v>0</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -13737,18 +14693,30 @@
         <v>0</v>
       </c>
       <c r="AX80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY80" t="n">
         <v>0</v>
       </c>
       <c r="AZ80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA80" t="n">
         <v>0</v>
       </c>
       <c r="BB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13852,10 +14820,10 @@
         <v>0</v>
       </c>
       <c r="AG81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI81" t="n">
         <v>0</v>
@@ -13864,19 +14832,19 @@
         <v>0</v>
       </c>
       <c r="AK81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81" t="n">
         <v>0</v>
       </c>
       <c r="AM81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN81" t="n">
         <v>0</v>
       </c>
       <c r="AO81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP81" t="n">
         <v>0</v>
@@ -13885,13 +14853,13 @@
         <v>0</v>
       </c>
       <c r="AR81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS81" t="n">
         <v>0</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU81" t="n">
         <v>0</v>
@@ -13903,18 +14871,30 @@
         <v>0</v>
       </c>
       <c r="AX81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY81" t="n">
         <v>0</v>
       </c>
       <c r="AZ81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA81" t="n">
         <v>0</v>
       </c>
       <c r="BB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14083,6 +15063,18 @@
       <c r="BB82" t="n">
         <v>0</v>
       </c>
+      <c r="BC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -14249,6 +15241,18 @@
       <c r="BB83" t="n">
         <v>0</v>
       </c>
+      <c r="BC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14415,6 +15419,18 @@
       <c r="BB84" t="n">
         <v>0</v>
       </c>
+      <c r="BC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14581,6 +15597,18 @@
       <c r="BB85" t="n">
         <v>0</v>
       </c>
+      <c r="BC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14747,6 +15775,18 @@
       <c r="BB86" t="n">
         <v>0</v>
       </c>
+      <c r="BC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -14913,6 +15953,18 @@
       <c r="BB87" t="n">
         <v>0</v>
       </c>
+      <c r="BC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15079,6 +16131,18 @@
       <c r="BB88" t="n">
         <v>0</v>
       </c>
+      <c r="BC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -15245,6 +16309,18 @@
       <c r="BB89" t="n">
         <v>0</v>
       </c>
+      <c r="BC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15411,6 +16487,18 @@
       <c r="BB90" t="n">
         <v>0</v>
       </c>
+      <c r="BC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15577,6 +16665,18 @@
       <c r="BB91" t="n">
         <v>0</v>
       </c>
+      <c r="BC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15702,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="AO92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP92" t="n">
         <v>0</v>
@@ -15711,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="AR92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS92" t="n">
         <v>0</v>
@@ -15723,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="AV92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW92" t="n">
         <v>0</v>
@@ -15735,12 +16835,24 @@
         <v>0</v>
       </c>
       <c r="AZ92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA92" t="n">
         <v>0</v>
       </c>
       <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15838,10 +16950,10 @@
         <v>0</v>
       </c>
       <c r="AE93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG93" t="n">
         <v>0</v>
@@ -15883,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU93" t="n">
         <v>0</v>
@@ -15895,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="AX93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY93" t="n">
         <v>0</v>
@@ -15907,6 +17019,18 @@
         <v>0</v>
       </c>
       <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16004,10 +17128,10 @@
         <v>0</v>
       </c>
       <c r="AE94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG94" t="n">
         <v>0</v>
@@ -16022,19 +17146,19 @@
         <v>0</v>
       </c>
       <c r="AK94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" t="n">
         <v>0</v>
       </c>
       <c r="AM94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN94" t="n">
         <v>0</v>
       </c>
       <c r="AO94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP94" t="n">
         <v>0</v>
@@ -16043,36 +17167,48 @@
         <v>0</v>
       </c>
       <c r="AR94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS94" t="n">
         <v>0</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU94" t="n">
         <v>0</v>
       </c>
       <c r="AV94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW94" t="n">
         <v>0</v>
       </c>
       <c r="AX94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY94" t="n">
         <v>0</v>
       </c>
       <c r="AZ94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA94" t="n">
         <v>0</v>
       </c>
       <c r="BB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16170,10 +17306,10 @@
         <v>0</v>
       </c>
       <c r="AE95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG95" t="n">
         <v>0</v>
@@ -16188,19 +17324,19 @@
         <v>0</v>
       </c>
       <c r="AK95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95" t="n">
         <v>0</v>
       </c>
       <c r="AM95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN95" t="n">
         <v>0</v>
       </c>
       <c r="AO95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP95" t="n">
         <v>0</v>
@@ -16209,13 +17345,13 @@
         <v>0</v>
       </c>
       <c r="AR95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS95" t="n">
         <v>0</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU95" t="n">
         <v>0</v>
@@ -16227,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="AX95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY95" t="n">
         <v>0</v>
@@ -16239,6 +17375,18 @@
         <v>0</v>
       </c>
       <c r="BB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16336,10 +17484,10 @@
         <v>0</v>
       </c>
       <c r="AE96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG96" t="n">
         <v>0</v>
@@ -16354,19 +17502,19 @@
         <v>0</v>
       </c>
       <c r="AK96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96" t="n">
         <v>0</v>
       </c>
       <c r="AM96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN96" t="n">
         <v>0</v>
       </c>
       <c r="AO96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP96" t="n">
         <v>0</v>
@@ -16375,13 +17523,13 @@
         <v>0</v>
       </c>
       <c r="AR96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS96" t="n">
         <v>0</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU96" t="n">
         <v>0</v>
@@ -16393,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="AX96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY96" t="n">
         <v>0</v>
@@ -16405,6 +17553,18 @@
         <v>0</v>
       </c>
       <c r="BB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16502,10 +17662,10 @@
         <v>0</v>
       </c>
       <c r="AE97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG97" t="n">
         <v>0</v>
@@ -16520,19 +17680,19 @@
         <v>0</v>
       </c>
       <c r="AK97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" t="n">
         <v>0</v>
       </c>
       <c r="AM97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN97" t="n">
         <v>0</v>
       </c>
       <c r="AO97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP97" t="n">
         <v>0</v>
@@ -16541,13 +17701,13 @@
         <v>0</v>
       </c>
       <c r="AR97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS97" t="n">
         <v>0</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU97" t="n">
         <v>0</v>
@@ -16559,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="AX97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY97" t="n">
         <v>0</v>
@@ -16571,6 +17731,18 @@
         <v>0</v>
       </c>
       <c r="BB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16665,13 +17837,13 @@
         <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE98" t="n">
         <v>1</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG98" t="n">
         <v>0</v>
@@ -16686,13 +17858,13 @@
         <v>0</v>
       </c>
       <c r="AK98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN98" t="n">
         <v>0</v>
@@ -16701,19 +17873,19 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ98" t="n">
         <v>0</v>
       </c>
       <c r="AR98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU98" t="n">
         <v>0</v>
@@ -16725,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="AX98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY98" t="n">
         <v>0</v>
@@ -16737,6 +17909,18 @@
         <v>0</v>
       </c>
       <c r="BB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16831,13 +18015,13 @@
         <v>0</v>
       </c>
       <c r="AD99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE99" t="n">
         <v>1</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG99" t="n">
         <v>0</v>
@@ -16852,13 +18036,13 @@
         <v>0</v>
       </c>
       <c r="AK99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN99" t="n">
         <v>0</v>
@@ -16867,19 +18051,19 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ99" t="n">
         <v>0</v>
       </c>
       <c r="AR99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU99" t="n">
         <v>0</v>
@@ -16891,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="AX99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY99" t="n">
         <v>0</v>
@@ -16903,6 +18087,18 @@
         <v>0</v>
       </c>
       <c r="BB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16997,19 +18193,19 @@
         <v>0</v>
       </c>
       <c r="AD100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE100" t="n">
         <v>1</v>
       </c>
       <c r="AF100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI100" t="n">
         <v>0</v>
@@ -17018,13 +18214,13 @@
         <v>0</v>
       </c>
       <c r="AK100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN100" t="n">
         <v>0</v>
@@ -17033,19 +18229,19 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ100" t="n">
         <v>0</v>
       </c>
       <c r="AR100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU100" t="n">
         <v>0</v>
@@ -17057,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="AX100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY100" t="n">
         <v>0</v>
@@ -17069,6 +18265,18 @@
         <v>0</v>
       </c>
       <c r="BB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17163,19 +18371,19 @@
         <v>0</v>
       </c>
       <c r="AD101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE101" t="n">
         <v>1</v>
       </c>
       <c r="AF101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI101" t="n">
         <v>0</v>
@@ -17184,13 +18392,13 @@
         <v>0</v>
       </c>
       <c r="AK101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN101" t="n">
         <v>0</v>
@@ -17199,31 +18407,31 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ101" t="n">
         <v>0</v>
       </c>
       <c r="AR101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU101" t="n">
         <v>0</v>
       </c>
       <c r="AV101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW101" t="n">
         <v>0</v>
       </c>
       <c r="AX101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY101" t="n">
         <v>0</v>
@@ -17235,6 +18443,18 @@
         <v>0</v>
       </c>
       <c r="BB101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17350,13 +18570,13 @@
         <v>0</v>
       </c>
       <c r="AK102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102" t="n">
         <v>0</v>
       </c>
       <c r="AM102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN102" t="n">
         <v>0</v>
@@ -17401,6 +18621,18 @@
         <v>0</v>
       </c>
       <c r="BB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17516,13 +18748,13 @@
         <v>0</v>
       </c>
       <c r="AK103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103" t="n">
         <v>0</v>
       </c>
       <c r="AM103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN103" t="n">
         <v>0</v>
@@ -17567,6 +18799,18 @@
         <v>0</v>
       </c>
       <c r="BB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17682,13 +18926,13 @@
         <v>0</v>
       </c>
       <c r="AK104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104" t="n">
         <v>0</v>
       </c>
       <c r="AM104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN104" t="n">
         <v>0</v>
@@ -17733,6 +18977,18 @@
         <v>0</v>
       </c>
       <c r="BB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17848,13 +19104,13 @@
         <v>0</v>
       </c>
       <c r="AK105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105" t="n">
         <v>0</v>
       </c>
       <c r="AM105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN105" t="n">
         <v>0</v>
@@ -17899,6 +19155,18 @@
         <v>0</v>
       </c>
       <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18014,13 +19282,13 @@
         <v>0</v>
       </c>
       <c r="AK106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL106" t="n">
         <v>0</v>
       </c>
       <c r="AM106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN106" t="n">
         <v>0</v>
@@ -18065,6 +19333,18 @@
         <v>0</v>
       </c>
       <c r="BB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18180,13 +19460,13 @@
         <v>0</v>
       </c>
       <c r="AK107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" t="n">
         <v>0</v>
       </c>
       <c r="AM107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN107" t="n">
         <v>0</v>
@@ -18231,6 +19511,18 @@
         <v>0</v>
       </c>
       <c r="BB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18346,13 +19638,13 @@
         <v>0</v>
       </c>
       <c r="AK108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL108" t="n">
         <v>0</v>
       </c>
       <c r="AM108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN108" t="n">
         <v>0</v>
@@ -18397,6 +19689,18 @@
         <v>0</v>
       </c>
       <c r="BB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18512,13 +19816,13 @@
         <v>0</v>
       </c>
       <c r="AK109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109" t="n">
         <v>0</v>
       </c>
       <c r="AM109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN109" t="n">
         <v>0</v>
@@ -18563,6 +19867,18 @@
         <v>0</v>
       </c>
       <c r="BB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18678,13 +19994,13 @@
         <v>0</v>
       </c>
       <c r="AK110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110" t="n">
         <v>0</v>
       </c>
       <c r="AM110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN110" t="n">
         <v>0</v>
@@ -18729,6 +20045,18 @@
         <v>0</v>
       </c>
       <c r="BB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18844,13 +20172,13 @@
         <v>0</v>
       </c>
       <c r="AK111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL111" t="n">
         <v>0</v>
       </c>
       <c r="AM111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN111" t="n">
         <v>0</v>
@@ -18895,6 +20223,18 @@
         <v>0</v>
       </c>
       <c r="BB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19022,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="AO112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP112" t="n">
         <v>0</v>
@@ -19031,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="AR112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS112" t="n">
         <v>0</v>
@@ -19061,6 +20401,18 @@
         <v>0</v>
       </c>
       <c r="BB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19188,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="AO113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP113" t="n">
         <v>0</v>
@@ -19197,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="AR113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS113" t="n">
         <v>0</v>
@@ -19227,6 +20579,18 @@
         <v>0</v>
       </c>
       <c r="BB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19354,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="AO114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP114" t="n">
         <v>0</v>
@@ -19363,7 +20727,7 @@
         <v>0</v>
       </c>
       <c r="AR114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS114" t="n">
         <v>0</v>
@@ -19393,6 +20757,18 @@
         <v>0</v>
       </c>
       <c r="BB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19520,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="AO115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP115" t="n">
         <v>0</v>
@@ -19529,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="AR115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS115" t="n">
         <v>0</v>
@@ -19559,6 +20935,18 @@
         <v>0</v>
       </c>
       <c r="BB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19686,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="AO116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP116" t="n">
         <v>0</v>
@@ -19695,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="AR116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS116" t="n">
         <v>0</v>
@@ -19725,6 +21113,18 @@
         <v>0</v>
       </c>
       <c r="BB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19852,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="AO117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP117" t="n">
         <v>0</v>
@@ -19861,7 +21261,7 @@
         <v>0</v>
       </c>
       <c r="AR117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS117" t="n">
         <v>0</v>
@@ -19891,6 +21291,18 @@
         <v>0</v>
       </c>
       <c r="BB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20018,7 +21430,7 @@
         <v>0</v>
       </c>
       <c r="AO118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP118" t="n">
         <v>0</v>
@@ -20027,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="AR118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS118" t="n">
         <v>0</v>
@@ -20057,6 +21469,18 @@
         <v>0</v>
       </c>
       <c r="BB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20184,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="AO119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP119" t="n">
         <v>0</v>
@@ -20193,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="AR119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS119" t="n">
         <v>0</v>
@@ -20223,6 +21647,18 @@
         <v>0</v>
       </c>
       <c r="BB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20350,7 +21786,7 @@
         <v>0</v>
       </c>
       <c r="AO120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP120" t="n">
         <v>0</v>
@@ -20359,7 +21795,7 @@
         <v>0</v>
       </c>
       <c r="AR120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS120" t="n">
         <v>0</v>
@@ -20389,6 +21825,18 @@
         <v>0</v>
       </c>
       <c r="BB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20516,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="AO121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP121" t="n">
         <v>0</v>
@@ -20525,7 +21973,7 @@
         <v>0</v>
       </c>
       <c r="AR121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS121" t="n">
         <v>0</v>
@@ -20555,6 +22003,18 @@
         <v>0</v>
       </c>
       <c r="BB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
         <v>0</v>
       </c>
     </row>
